--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\RESPALDO\TRANSPARENCIA UPP\2023\SIPOT\3er Trimestres 2023\UPP 3ER TRI 2023 SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO.2\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFBB0158-51D6-4097-AFBB-5655F6F63048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1450B5DE-139B-443D-8E13-3D87D8BB9AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
     <t>Denominación de la persona física o moral, en su caso</t>
   </si>
   <si>
-    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/04/2023 -&gt; Sexo (catálogo)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -258,21 +258,24 @@
     <t>Mujer</t>
   </si>
   <si>
+    <t>Para el periodo reportado no se han financiado estudios con recursos públicos.</t>
+  </si>
+  <si>
     <t>Dirección de Investigación, Innovación y Posgrado (UPP)</t>
-  </si>
-  <si>
-    <t>Para el periodo reportado no se han financiado estudios con recursos públicos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -281,11 +284,19 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -333,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -341,23 +352,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,44 +397,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -470,12 +481,12 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -531,166 +542,162 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -699,7 +706,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A8" sqref="A8:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +731,7 @@
     <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29" customWidth="1"/>
+    <col min="21" max="21" width="90.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -733,38 +740,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -897,29 +904,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -986,41 +993,41 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2023</v>
       </c>
-      <c r="B8" s="4">
-        <v>45108</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="3" t="s">
+      <c r="B8" s="7">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="9">
+        <v>45301</v>
+      </c>
+      <c r="T8" s="9">
+        <v>45301</v>
+      </c>
+      <c r="U8" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="S8" s="4">
-        <v>45209</v>
-      </c>
-      <c r="T8" s="4">
-        <v>45209</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1046,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
